--- a/biology/Botanique/Vahliales/Vahliales.xlsx
+++ b/biology/Botanique/Vahliales/Vahliales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Vahliaceae est une famille de plantes dicotylédones qui comprend un à deux genres.
 Aujourd'hui ce genre est appelée Vahlia. Ce sont des herbes des régions subtropicales à tropicales d'Afrique et d'Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Vahlia, nommé en 1782 par le naturaliste suédois Carl Peter Thunberg (1743-1848)[1] en hommage au botaniste dano-norvégien Martin Vahl (1749–1804) qui fut l’élève de Linné et un des directeurs de publication de l’atlas botanique danois Flora Danica.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Vahlia, nommé en 1782 par le naturaliste suédois Carl Peter Thunberg (1743-1848) en hommage au botaniste dano-norvégien Martin Vahl (1749–1804) qui fut l’élève de Linné et un des directeurs de publication de l’atlas botanique danois Flora Danica.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille n'existe pas.
-Cette famille d'abord placée dans l'ordre des Saxifragales, fut réassignée dans le nouvel ordre des Vahliales par la classification phylogénétique APG IV (2016)[3][4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas.
+Cette famille d'abord placée dans l'ordre des Saxifragales, fut réassignée dans le nouvel ordre des Vahliales par la classification phylogénétique APG IV (2016).
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 Jul 2010)[5] et NCBI  (2 Jul 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 Jul 2010) et NCBI  (2 Jul 2010) :
 Vahlia (en) Thunb.
-Selon DELTA Angio           (2 Jul 2010)[7] :
+Selon DELTA Angio           (2 Jul 2010) :
 Bistella
 Vahlia</t>
         </is>
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 Jul 2010) :
 genre Vahlia
 Vahlia capensis</t>
         </is>
